--- a/ranklist.xlsx
+++ b/ranklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="560" windowWidth="25040" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="7940" yWindow="2580" windowWidth="25040" windowHeight="16980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
